--- a/H5计划工具.xlsx
+++ b/H5计划工具.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/ly/business/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB78CF23-E4CC-6449-9B0C-329C97A34E88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1839A6-66EB-9942-92C1-C00A432F4866}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>金额</t>
   </si>
@@ -126,6 +126,10 @@
   </si>
   <si>
     <t>广发价值优化</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发创新医疗两年持有其混合</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2388,8 +2392,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:E26" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
-  <autoFilter ref="B2:E25" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:E27" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
+  <autoFilter ref="B2:E26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="名称" totalsRowLabel="总计" dataDxfId="7" totalsRowDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="是否结算" dataDxfId="6" totalsRowDxfId="2"/>
@@ -2666,10 +2670,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1"/>
@@ -2926,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="9">
-        <v>44562</v>
+        <v>44197</v>
       </c>
       <c r="E18" s="6">
         <v>2500</v>
@@ -2940,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="9">
-        <v>44562</v>
+        <v>44197</v>
       </c>
       <c r="E19" s="6">
         <v>2200</v>
@@ -2954,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="9">
-        <v>44562</v>
+        <v>44197</v>
       </c>
       <c r="E20" s="6">
         <v>2200</v>
@@ -2968,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="9">
-        <v>44562</v>
+        <v>44197</v>
       </c>
       <c r="E21" s="6">
         <v>2500</v>
@@ -2982,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="9">
-        <v>44562</v>
+        <v>44197</v>
       </c>
       <c r="E22" s="6">
         <v>2500</v>
@@ -2996,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="9">
-        <v>44562</v>
+        <v>44197</v>
       </c>
       <c r="E23" s="6">
         <v>2000</v>
@@ -3010,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="9">
-        <v>44562</v>
+        <v>44197</v>
       </c>
       <c r="E24" s="6">
         <v>2200</v>
@@ -3024,21 +3028,35 @@
         <v>0</v>
       </c>
       <c r="D25" s="9">
-        <v>44621</v>
+        <v>44256</v>
       </c>
       <c r="E25" s="6">
         <v>2000</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="18" customHeight="1">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="9">
+        <v>44257</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="18" customHeight="1">
+      <c r="B27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="6">
+      <c r="C27" s="4"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="6">
         <f>SUBTOTAL(109,Table1[金额])</f>
-        <v>52100</v>
+        <v>54100</v>
       </c>
     </row>
   </sheetData>

--- a/H5计划工具.xlsx
+++ b/H5计划工具.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/ly/business/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1839A6-66EB-9942-92C1-C00A432F4866}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87620472-5384-F94E-8386-AB65FEB84922}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="礼物计划工具" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>金额</t>
   </si>
@@ -132,6 +132,9 @@
     <t>广发创新医疗两年持有其混合</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>广发睿铭两年持有期</t>
+  </si>
 </sst>
 </file>
 
@@ -141,7 +144,7 @@
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,10 +201,17 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="兰亭黑-简 中黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Menlo"/>
-      <family val="2"/>
+      <name val="兰亭黑-简 中黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -245,7 +255,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1">
@@ -271,8 +281,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -286,14 +299,17 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="兰亭黑-简 中黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -302,6 +318,14 @@
     <dxf>
       <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -2392,13 +2416,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:E27" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
-  <autoFilter ref="B2:E26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:E28" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
+  <autoFilter ref="B2:E27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="名称" totalsRowLabel="总计" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="是否结算" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="日期" dataDxfId="5" totalsRowDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="金额" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="名称" totalsRowLabel="总计" dataDxfId="0" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="是否结算" dataDxfId="1" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="日期" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="金额" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="Gift Planner Table" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2670,10 +2694,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1"/>
@@ -2713,7 +2737,7 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4">
@@ -2727,7 +2751,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4">
@@ -2741,7 +2765,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4">
@@ -2755,7 +2779,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="4">
@@ -2769,7 +2793,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4">
@@ -2783,7 +2807,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4">
@@ -2797,7 +2821,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4">
@@ -2811,7 +2835,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="4">
@@ -2825,7 +2849,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="4">
@@ -2839,7 +2863,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="4">
@@ -2853,7 +2877,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="4">
@@ -2867,7 +2891,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="4">
@@ -2881,7 +2905,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" customHeight="1">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="4">
@@ -2895,7 +2919,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" customHeight="1">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="4">
@@ -2909,7 +2933,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="18" customHeight="1">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="4">
@@ -2923,11 +2947,11 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="18" customHeight="1">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="9">
         <v>44197</v>
@@ -2937,11 +2961,11 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="18" customHeight="1">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="9">
         <v>44197</v>
@@ -2951,11 +2975,11 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="18" customHeight="1">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="9">
         <v>44197</v>
@@ -2965,11 +2989,11 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="18" customHeight="1">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="9">
         <v>44197</v>
@@ -2979,11 +3003,11 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="18" customHeight="1">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="9">
         <v>44197</v>
@@ -2993,11 +3017,11 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="18" customHeight="1">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="9">
         <v>44197</v>
@@ -3007,11 +3031,11 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" customHeight="1">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="9">
         <v>44197</v>
@@ -3021,11 +3045,11 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" customHeight="1">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="9">
         <v>44256</v>
@@ -3035,11 +3059,11 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="18" customHeight="1">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="9">
         <v>44257</v>
@@ -3049,14 +3073,28 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="18" customHeight="1">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9">
+        <v>44272</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="18" customHeight="1">
+      <c r="B28" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="6">
+      <c r="C28" s="4"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="6">
         <f>SUBTOTAL(109,Table1[金额])</f>
-        <v>54100</v>
+        <v>56100</v>
       </c>
     </row>
   </sheetData>

--- a/H5计划工具.xlsx
+++ b/H5计划工具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/ly/business/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87620472-5384-F94E-8386-AB65FEB84922}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75621DF3-936D-7F49-BE58-AC3C82AEC3CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,6 +134,7 @@
   </si>
   <si>
     <t>广发睿铭两年持有期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -299,6 +300,31 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -310,31 +336,6 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2419,10 +2420,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:E28" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
   <autoFilter ref="B2:E27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="名称" totalsRowLabel="总计" dataDxfId="0" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="是否结算" dataDxfId="1" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="日期" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="金额" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="名称" totalsRowLabel="总计" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="是否结算" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="日期" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="金额" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Gift Planner Table" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2697,7 +2698,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1"/>
